--- a/Dropship/Spintel.xlsx
+++ b/Dropship/Spintel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Finance\Billing Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Finance\Billing Template\Upstream\Dropship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9FDF8DB0-93E0-47A9-9FA9-EA11661FC4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84832B7D-3B1A-481A-A516-DCA83C4386C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C50C56C0-9F3A-468D-8DB7-FD0850B3032F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{C50C56C0-9F3A-468D-8DB7-FD0850B3032F}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipped SKU" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>SKU</t>
   </si>
@@ -213,6 +202,12 @@
   </si>
   <si>
     <t>tge0027</t>
+  </si>
+  <si>
+    <t>tplink_hb210</t>
+  </si>
+  <si>
+    <t>TP-Link BE3600 Wi-Fi AP</t>
   </si>
 </sst>
 </file>
@@ -358,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,14 +533,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -686,26 +675,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="10" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -845,17 +814,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="10" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -904,7 +866,13 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -932,84 +900,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1051,8 +941,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{21E541C2-C83E-47C3-A116-2DEE71B5E79E}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1074,8 +964,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17679FF9-EB04-473B-8F64-EEE76A76A2B2}" name="SKU" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{673B8975-D3E3-418C-9C84-52AE2D79D5AE}" name="Qty" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{19826D0F-EEB9-41A6-9245-01026EEF5110}" name="Error" dataDxfId="16" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{673B8975-D3E3-418C-9C84-52AE2D79D5AE}" name="Qty" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{19826D0F-EEB9-41A6-9245-01026EEF5110}" name="Error" dataDxfId="14" dataCellStyle="Normal">
       <calculatedColumnFormula>_xlfn.CONCAT(
   IF(ISNA(MATCH(Ship_SKU[[#This Row],[SKU]], SKU[SKU], 0)), _xlfn.CONCAT("Missing ", Ship_SKU[[#This Row],[SKU]], " definition"), ""),
   IF(ISNUMBER(Ship_SKU[[#This Row],[Qty]]), "", "Quantity is not number")
@@ -1092,7 +982,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{200ABEF6-5238-4FCD-AC83-84B68D4D4838}" name="REF"/>
     <tableColumn id="2" xr3:uid="{7FCF562D-BB87-4432-80CA-C047B11BF23E}" name="Qty"/>
-    <tableColumn id="3" xr3:uid="{51CE96A6-D026-4B7A-B4A7-DC490DBBE726}" name="Error" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{51CE96A6-D026-4B7A-B4A7-DC490DBBE726}" name="Error" dataDxfId="13">
       <calculatedColumnFormula>_xlfn.CONCAT(
   IF(ISNA(MATCH(Ship_Type[[#This Row],[REF]], Type[REF], 0)), _xlfn.CONCAT("Missing ", Ship_Type[[#This Row],[REF]], " definition"), ""),
   IF(ISNUMBER(Ship_Type[[#This Row],[Qty]]), "", "Quantity is not number")
@@ -1125,13 +1015,13 @@
     <tableColumn id="9" xr3:uid="{A631A77F-4C93-47BA-B2F5-87087DAEEB42}" name="Commissioned" dataCellStyle="Calculation">
       <calculatedColumnFormula>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{43ECE4A2-7997-4541-9CF5-E9D0E002B84A}" name="Qty" dataDxfId="14" dataCellStyle="Output">
+    <tableColumn id="6" xr3:uid="{43ECE4A2-7997-4541-9CF5-E9D0E002B84A}" name="Qty" dataDxfId="12" dataCellStyle="Output">
       <calculatedColumnFormula>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{061815EC-389D-41AD-8624-476B7BDF7EF9}" name="Cost" dataCellStyle="Currency">
       <calculatedColumnFormula>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3DA820DC-EBEF-4FE5-9A43-78816C2BB57F}" name="Error" dataDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{3DA820DC-EBEF-4FE5-9A43-78816C2BB57F}" name="Error" dataDxfId="11" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1140,37 +1030,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}" name="SKU" displayName="SKU" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}" name="SKU" displayName="SKU" ref="A1:M8" totalsRowShown="0">
+  <autoFilter ref="A1:M8" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
     <sortCondition ref="A1:A4"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D34CFDBF-6E27-474A-96EE-C62F3857D517}" name="SKU" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{31BC9093-55B2-47F4-AC5E-20202B2E6550}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{531877B5-9C86-4C0D-9CBB-838D9F308DF1}" name="Ship Code" dataDxfId="8" dataCellStyle="Input"/>
-    <tableColumn id="4" xr3:uid="{7088BE2B-D88F-4C34-8161-100B57F8FB78}" name="Ship Qty" dataDxfId="7" dataCellStyle="Calculation">
+    <tableColumn id="1" xr3:uid="{D34CFDBF-6E27-474A-96EE-C62F3857D517}" name="SKU" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{31BC9093-55B2-47F4-AC5E-20202B2E6550}" name="Name" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{531877B5-9C86-4C0D-9CBB-838D9F308DF1}" name="Ship Code" dataDxfId="10" dataCellStyle="Input"/>
+    <tableColumn id="4" xr3:uid="{7088BE2B-D88F-4C34-8161-100B57F8FB78}" name="Ship Qty" dataDxfId="9" dataCellStyle="Calculation">
       <calculatedColumnFormula>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9C37E4C-73B3-4F6A-A718-1097B41D1E93}" name="Ship Cost" dataDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{B9C37E4C-73B3-4F6A-A718-1097B41D1E93}" name="Ship Cost" dataDxfId="8" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FB5DBA6D-00FD-4CED-8E0F-4F56D5A58EC5}" name="Kit Code" dataCellStyle="Input"/>
     <tableColumn id="6" xr3:uid="{687DD87B-20BA-46B9-B299-3A91BDAE14EC}" name="Kit Items" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{4DBEE7C7-94EB-422A-9A5B-D62C4BDDD8E9}" name="Kit Qty" dataDxfId="5" dataCellStyle="Calculation">
+    <tableColumn id="14" xr3:uid="{4DBEE7C7-94EB-422A-9A5B-D62C4BDDD8E9}" name="Kit Qty" dataDxfId="7" dataCellStyle="Calculation">
       <calculatedColumnFormula>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5CCD393F-2453-4795-833A-23ECDF388B07}" name="Kit Cost" dataDxfId="4" dataCellStyle="Calculation">
+    <tableColumn id="12" xr3:uid="{5CCD393F-2453-4795-833A-23ECDF388B07}" name="Kit Cost" dataDxfId="6" dataCellStyle="Calculation">
       <calculatedColumnFormula>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{75ED25F9-159C-4388-8B09-7F5EE9FBF6F7}" name="Commission Code" dataDxfId="3" dataCellStyle="Input"/>
-    <tableColumn id="13" xr3:uid="{140E9353-875E-4671-AD80-72991CE58F6D}" name="Comission Cost" dataDxfId="2" dataCellStyle="Calculation">
+    <tableColumn id="7" xr3:uid="{75ED25F9-159C-4388-8B09-7F5EE9FBF6F7}" name="Commission Code" dataDxfId="5" dataCellStyle="Input"/>
+    <tableColumn id="13" xr3:uid="{140E9353-875E-4671-AD80-72991CE58F6D}" name="Comission Cost" dataDxfId="4" dataCellStyle="Calculation">
       <calculatedColumnFormula>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6E734072-2A9B-43B4-A7B8-5682F9AC4C66}" name="Total" dataDxfId="1" dataCellStyle="Output">
+    <tableColumn id="8" xr3:uid="{6E734072-2A9B-43B4-A7B8-5682F9AC4C66}" name="Total" dataDxfId="3" dataCellStyle="Output">
       <calculatedColumnFormula>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D23FACEE-5AD9-4665-B748-4AB1D0EFFD86}" name="Error" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{D23FACEE-5AD9-4665-B748-4AB1D0EFFD86}" name="Error" dataDxfId="2">
       <calculatedColumnFormula>IF(OR(ISNA(SKU[[#This Row],[Ship Cost]]), ISNA(SKU[[#This Row],[Kit Cost]]), ISNA(SKU[[#This Row],[Comission Cost]])), "Error Accessing SAP Rate", "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1188,13 +1078,13 @@
     <tableColumn id="1" xr3:uid="{0B29E2D3-D0A7-41FB-85C2-6295CBE39907}" name="REF"/>
     <tableColumn id="2" xr3:uid="{0D310FA7-648F-4BF4-8DC2-E720EFF9B487}" name="Name"/>
     <tableColumn id="3" xr3:uid="{A41ACBAE-7476-4350-B5AA-9FBA621C2301}" name="Rate Code" dataCellStyle="Input"/>
-    <tableColumn id="4" xr3:uid="{0365826B-1DC9-4904-8CF1-A1C7B2EC0BA0}" name="Qty" dataDxfId="12" dataCellStyle="Calculation">
+    <tableColumn id="4" xr3:uid="{0365826B-1DC9-4904-8CF1-A1C7B2EC0BA0}" name="Qty" dataDxfId="1" dataCellStyle="Calculation">
       <calculatedColumnFormula>SUMIF(Ship_Type[REF], Type[[#This Row],[REF]], Ship_Type[Qty])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3E13FEEA-904C-4B08-9F28-1B3E2FCE1F0F}" name="Cost" dataCellStyle="Output">
       <calculatedColumnFormula>IF(Type[[#This Row],[Rate Code]]="", 0, VLOOKUP(Type[[#This Row],[Rate Code]], Rate[], 3, FALSE)*Type[[#This Row],[Qty]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8FD79DA1-D3E8-4BF6-A486-3EB465A555C0}" name="Error" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{8FD79DA1-D3E8-4BF6-A486-3EB465A555C0}" name="Error" dataDxfId="0">
       <calculatedColumnFormula>IF(ISNA(Type[[#This Row],[Cost]]), "Error Accessing SAP Rate", "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1203,9 +1093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1243,7 +1133,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1349,7 +1239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1491,7 +1381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1508,13 +1398,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,11 +1415,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2">
         <v>316</v>
       </c>
       <c r="C2" t="str">
@@ -1540,11 +1430,11 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3">
         <v>243</v>
       </c>
       <c r="C3" t="str">
@@ -1555,11 +1445,11 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4">
         <v>46</v>
       </c>
       <c r="C4" t="str">
@@ -1570,14 +1460,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5">
         <v>43</v>
       </c>
-      <c r="C5" s="45" t="str">
+      <c r="C5" t="str">
         <f>_xlfn.CONCAT(
   IF(ISNA(MATCH(Ship_SKU[[#This Row],[SKU]], SKU[SKU], 0)), _xlfn.CONCAT("Missing ", Ship_SKU[[#This Row],[SKU]], " definition"), ""),
   IF(ISNUMBER(Ship_SKU[[#This Row],[Qty]]), "", "Quantity is not number")
@@ -1585,14 +1475,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6">
         <v>37</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" t="str">
         <f>_xlfn.CONCAT(
   IF(ISNA(MATCH(Ship_SKU[[#This Row],[SKU]], SKU[SKU], 0)), _xlfn.CONCAT("Missing ", Ship_SKU[[#This Row],[SKU]], " definition"), ""),
   IF(ISNUMBER(Ship_SKU[[#This Row],[Qty]]), "", "Quantity is not number")
@@ -1624,13 +1514,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1641,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1653,7 +1543,7 @@
         <v>Quantity is not number</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1687,22 +1577,22 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1200117</v>
       </c>
@@ -1773,7 +1663,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1200118</v>
       </c>
@@ -1812,7 +1702,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1200119</v>
       </c>
@@ -1849,7 +1739,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1200120</v>
       </c>
@@ -1888,7 +1778,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4002288</v>
       </c>
@@ -1927,7 +1817,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4002289</v>
       </c>
@@ -1966,7 +1856,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
@@ -2006,6 +1896,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2018,29 +1909,29 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2011,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2050,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2200,11 +2091,11 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="1">
@@ -2228,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="17"/>
-      <c r="K5" s="44">
+      <c r="K5" s="42">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
@@ -2241,22 +2132,20 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="15">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>243</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="5">
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="17"/>
       <c r="H6" s="15">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
@@ -2266,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="17"/>
-      <c r="K6" s="44">
+      <c r="K6" s="42">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
@@ -2274,27 +2163,25 @@
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
-      <c r="M6" s="52" t="str">
+      <c r="M6" t="str">
         <f>IF(OR(ISNA(SKU[[#This Row],[Ship Cost]]), ISNA(SKU[[#This Row],[Kit Cost]]), ISNA(SKU[[#This Row],[Comission Cost]])), "Error Accessing SAP Rate", "")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="15">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>37</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="5">
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="17"/>
       <c r="H7" s="15">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
@@ -2304,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="44">
+      <c r="K7" s="42">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
@@ -2312,7 +2199,48 @@
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
-      <c r="M7" s="52" t="str">
+      <c r="M7" t="str">
+        <f>IF(OR(ISNA(SKU[[#This Row],[Ship Cost]]), ISNA(SKU[[#This Row],[Kit Cost]]), ISNA(SKU[[#This Row],[Comission Cost]])), "Error Accessing SAP Rate", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4002289</v>
+      </c>
+      <c r="D8" s="15">
+        <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="H8" s="15">
+        <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="42">
+        <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="45" t="str">
         <f>IF(OR(ISNA(SKU[[#This Row],[Ship Cost]]), ISNA(SKU[[#This Row],[Kit Cost]]), ISNA(SKU[[#This Row],[Comission Cost]])), "Error Accessing SAP Rate", "")</f>
         <v/>
       </c>
@@ -2336,15 +2264,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2387,7 +2315,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2411,6 +2339,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2429,15 +2358,15 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24" t="s">
         <v>40</v>
@@ -2463,7 +2392,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>4002288</v>
       </c>
@@ -2484,7 +2413,7 @@
         <v>1373.65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>4002289</v>
       </c>
@@ -2505,14 +2434,14 @@
         <v>532.14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="36"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
         <v>41</v>
@@ -2521,7 +2450,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>1200117</v>
       </c>
@@ -2542,10 +2471,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>42</v>
@@ -2554,7 +2483,7 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>1200118</v>
       </c>
@@ -2596,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>1200119</v>
       </c>
@@ -2617,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>1200120</v>
       </c>
@@ -2637,7 +2566,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="41" t="s">
         <v>15</v>
       </c>
@@ -2660,13 +2589,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2683,7 +2612,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
@@ -2692,7 +2621,7 @@
         <v>Quantity is not number</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2701,7 +2630,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2710,7 +2639,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>

--- a/Dropship/Spintel.xlsx
+++ b/Dropship/Spintel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Finance\Billing Template\Upstream\Dropship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84832B7D-3B1A-481A-A516-DCA83C4386C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5144FC-4AE9-4DC7-AC38-93AFD121A7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{C50C56C0-9F3A-468D-8DB7-FD0850B3032F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{C50C56C0-9F3A-468D-8DB7-FD0850B3032F}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipped SKU" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>SKU</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>TP-Link BE3600 Wi-Fi AP</t>
+  </si>
+  <si>
+    <t>tge0026</t>
+  </si>
+  <si>
+    <t>TGE - 3KG Satchel</t>
+  </si>
+  <si>
+    <t>Spintel - De-vanning pallets/unloading from truck, pallet put-away</t>
+  </si>
+  <si>
+    <t>Spintel - De-vanning cartons/unloading from a truck, carton put-away</t>
+  </si>
+  <si>
+    <t>In Bound Shipment Services</t>
   </si>
 </sst>
 </file>
@@ -731,7 +746,6 @@
     <xf numFmtId="44" fontId="11" fillId="6" borderId="4" xfId="12" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="11" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="12"/>
-    <xf numFmtId="44" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="6" borderId="5" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="20"/>
@@ -749,8 +763,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="6" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="11"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="30" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,8 +830,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="10" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="12" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -957,8 +972,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{689FAB5F-4156-4438-87D9-10E7BB3562C6}" name="Ship_SKU" displayName="Ship_SKU" ref="A1:C6" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:C6" xr:uid="{689FAB5F-4156-4438-87D9-10E7BB3562C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{689FAB5F-4156-4438-87D9-10E7BB3562C6}" name="Ship_SKU" displayName="Ship_SKU" ref="A1:C7" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:C7" xr:uid="{689FAB5F-4156-4438-87D9-10E7BB3562C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
     <sortCondition ref="A1:A4"/>
   </sortState>
@@ -994,10 +1009,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3DE09D7-D422-4DAA-A816-08D2DF870459}" name="Rate" displayName="Rate" ref="A1:J8" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:J8" xr:uid="{C3DE09D7-D422-4DAA-A816-08D2DF870459}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">
-    <sortCondition ref="A1:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3DE09D7-D422-4DAA-A816-08D2DF870459}" name="Rate" displayName="Rate" ref="A1:J10" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:J10" xr:uid="{C3DE09D7-D422-4DAA-A816-08D2DF870459}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{24F70D57-2EE1-4C0C-AB27-FA9936CA2FDA}" name="SAP Code" dataCellStyle="Normal"/>
@@ -1015,10 +1030,10 @@
     <tableColumn id="9" xr3:uid="{A631A77F-4C93-47BA-B2F5-87087DAEEB42}" name="Commissioned" dataCellStyle="Calculation">
       <calculatedColumnFormula>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{43ECE4A2-7997-4541-9CF5-E9D0E002B84A}" name="Qty" dataDxfId="12" dataCellStyle="Output">
+    <tableColumn id="6" xr3:uid="{43ECE4A2-7997-4541-9CF5-E9D0E002B84A}" name="Qty" dataDxfId="12" dataCellStyle="Calculation">
       <calculatedColumnFormula>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{061815EC-389D-41AD-8624-476B7BDF7EF9}" name="Cost" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{061815EC-389D-41AD-8624-476B7BDF7EF9}" name="Cost" dataCellStyle="Output">
       <calculatedColumnFormula>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{3DA820DC-EBEF-4FE5-9A43-78816C2BB57F}" name="Error" dataDxfId="11" dataCellStyle="Normal">
@@ -1030,8 +1045,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}" name="SKU" displayName="SKU" ref="A1:M8" totalsRowShown="0">
-  <autoFilter ref="A1:M8" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}" name="SKU" displayName="SKU" ref="A1:M9" totalsRowShown="0">
+  <autoFilter ref="A1:M9" xr:uid="{3408F06A-19C6-485A-BFD6-642AAEDC81AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
     <sortCondition ref="A1:A4"/>
   </sortState>
@@ -1392,10 +1407,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,9 +1505,24 @@
         <v/>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.CONCAT(
+  IF(ISNA(MATCH(Ship_SKU[[#This Row],[SKU]], SKU[SKU], 0)), _xlfn.CONCAT("Missing ", Ship_SKU[[#This Row],[SKU]], " definition"), ""),
+  IF(ISNUMBER(Ship_SKU[[#This Row],[Qty]]), "", "Quantity is not number")
+)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{FB48059A-80C0-42C2-8C41-BDE827D81EBA}">
+    <dataValidation type="whole" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{FB48059A-80C0-42C2-8C41-BDE827D81EBA}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1571,10 +1601,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,14 +1655,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1200117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9">
-        <v>6.45</v>
+      <c r="A2" s="41">
+        <v>1200115</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8">
+        <v>12.5</v>
       </c>
       <c r="D2" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
@@ -1650,7 +1680,7 @@
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>0</v>
       </c>
@@ -1658,20 +1688,20 @@
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>0</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1200118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9">
-        <v>100</v>
+      <c r="A3" s="43">
+        <v>1200116</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="44">
+        <v>3.8</v>
       </c>
       <c r="D3" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
@@ -1689,7 +1719,7 @@
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>0</v>
       </c>
@@ -1697,19 +1727,21 @@
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>0</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1200119</v>
+        <v>1200117</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6.45</v>
+      </c>
       <c r="D4" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
         <v>0</v>
@@ -1726,7 +1758,7 @@
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>0</v>
       </c>
@@ -1734,20 +1766,20 @@
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>0</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1200120</v>
+        <v>1200118</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9">
-        <v>250</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="8">
+        <v>100</v>
       </c>
       <c r="D5" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
@@ -1765,7 +1797,7 @@
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>0</v>
       </c>
@@ -1773,24 +1805,22 @@
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>0</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4002288</v>
+        <v>1200119</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3.31</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <f>SUMIF(SKU[Ship Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
@@ -1804,95 +1834,179 @@
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="45">
+        <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="42" t="str">
+        <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1200120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8">
+        <v>250</v>
+      </c>
+      <c r="D7" s="6">
+        <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <f>SUMIF(SKU[Ship Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f>SUMIF(SKU[Kit Code], Rate[[#This Row],[SAP Code]], SKU[Kit Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="42" t="str">
+        <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4002288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.31</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
+        <v>415</v>
+      </c>
+      <c r="E8" s="6">
+        <f>SUMIF(SKU[Ship Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f>SUMIF(SKU[Kit Code], Rate[[#This Row],[SAP Code]], SKU[Kit Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>415</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I8" s="7">
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>1373.65</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J8" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4002289</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C9" s="8">
         <v>1.47</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D9" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E9" s="6">
         <f>SUMIF(SKU[Ship Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>362</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F9" s="6">
         <f>SUMIF(SKU[Kit Code], Rate[[#This Row],[SAP Code]], SKU[Kit Qty])</f>
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G9" s="6">
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H9" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>362</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I9" s="7">
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>532.14</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J9" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C10" s="8">
         <v>6.2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D10" s="6">
         <f>SUMIF(Type[Rate Code], Rate[[#This Row],[SAP Code]], Type[Qty])</f>
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="6">
         <f>SUMIF(SKU[Ship Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F10" s="6">
         <f>SUMIF(SKU[Kit Code], Rate[[#This Row],[SAP Code]], SKU[Kit Qty])</f>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G10" s="6">
         <f>SUMIF(SKU[Commission Code], Rate[[#This Row],[SAP Code]], SKU[Ship Qty])</f>
         <v>0</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H10" s="45">
         <f>SUM(Rate[[#This Row],[Orders]:[Commissioned]])</f>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I10" s="7">
         <f>Rate[[#This Row],[Rate]]*Rate[[#This Row],[Qty]]</f>
         <v>0</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J10" s="42" t="str">
         <f>IF(ISNA(MATCH(Rate[[#This Row],[SAP Code]], Summary!A:A, 0)), _xlfn.CONCAT("Missing ", Rate[[#This Row],[SAP Code]], " in summary"), "")</f>
         <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="7">
+        <f>SUM(Rate[Cost])</f>
+        <v>1905.79</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +2023,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2116,7 @@
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
@@ -2041,7 +2155,7 @@
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
@@ -2060,7 +2174,7 @@
       <c r="C4" s="1">
         <v>4002289</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>316</v>
       </c>
@@ -2068,21 +2182,21 @@
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>464.52</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="H4" s="15">
+      <c r="F4" s="16"/>
+      <c r="H4" s="14">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16">
+      <c r="J4" s="13"/>
+      <c r="K4" s="15">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>464.52</v>
       </c>
@@ -2101,7 +2215,7 @@
       <c r="C5" s="1">
         <v>4002289</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>46</v>
       </c>
@@ -2109,21 +2223,21 @@
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>67.62</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="H5" s="15">
+      <c r="F5" s="16"/>
+      <c r="H5" s="14">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
         <v>0</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="42">
+      <c r="J5" s="16"/>
+      <c r="K5" s="39">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>67.62</v>
       </c>
@@ -2136,8 +2250,8 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="15">
+      <c r="C6" s="40"/>
+      <c r="D6" s="14">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>243</v>
       </c>
@@ -2145,21 +2259,21 @@
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="H6" s="15">
+      <c r="F6" s="16"/>
+      <c r="H6" s="14">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
         <v>0</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="42">
+      <c r="J6" s="16"/>
+      <c r="K6" s="39">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
@@ -2172,8 +2286,8 @@
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="15">
+      <c r="C7" s="40"/>
+      <c r="D7" s="14">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>37</v>
       </c>
@@ -2181,21 +2295,21 @@
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="H7" s="15">
+      <c r="F7" s="16"/>
+      <c r="H7" s="14">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
         <v>0</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="42">
+      <c r="J7" s="16"/>
+      <c r="K7" s="39">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
@@ -2205,16 +2319,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>4002289</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
         <v>0</v>
       </c>
@@ -2222,30 +2336,88 @@
         <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="H8" s="15">
+      <c r="F8" s="16"/>
+      <c r="H8" s="14">
         <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="42">
+      <c r="J8" s="16"/>
+      <c r="K8" s="39">
         <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
         <v>0</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
         <v>0</v>
       </c>
-      <c r="M8" s="45" t="str">
+      <c r="M8" t="str">
         <f>IF(OR(ISNA(SKU[[#This Row],[Ship Cost]]), ISNA(SKU[[#This Row],[Kit Cost]]), ISNA(SKU[[#This Row],[Comission Cost]])), "Error Accessing SAP Rate", "")</f>
         <v/>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="14">
+        <f>SUMIF(Ship_SKU[SKU], SKU[[#This Row],[SKU]], Ship_SKU[Qty])</f>
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
+        <f>IF(SKU[[#This Row],[Ship Code]]="", 0, VLOOKUP(SKU[[#This Row],[Ship Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="H9" s="14">
+        <f>SKU[[#This Row],[Ship Qty]]*SKU[[#This Row],[Kit Items]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <f>IF(SKU[[#This Row],[Kit Code]]="", 0, VLOOKUP(SKU[[#This Row],[Kit Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Kit Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="39">
+        <f>IF(SKU[[#This Row],[Commission Code]]="", 0, VLOOKUP(SKU[[#This Row],[Commission Code]], Rate[], 3, FALSE)*SKU[[#This Row],[Ship Qty]])</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <f>SKU[[#This Row],[Ship Cost]]+SKU[[#This Row],[Kit Cost]]+SKU[[#This Row],[Comission Cost]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f>IF(OR(ISNA(SKU[[#This Row],[Ship Cost]]), ISNA(SKU[[#This Row],[Kit Cost]]), ISNA(SKU[[#This Row],[Comission Cost]])), "Error Accessing SAP Rate", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <f>SUM(SKU[Ship Cost])</f>
+        <v>532.14</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM(SKU[Kit Cost])</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM(SKU[Comission Cost])</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f>SUM(SKU[Total])</f>
+        <v>532.14</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2258,10 +2430,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,10 +2454,10 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
@@ -2306,7 +2478,7 @@
         <f>SUMIF(Ship_Type[REF], Type[[#This Row],[REF]], Ship_Type[Qty])</f>
         <v>415</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>IF(Type[[#This Row],[Rate Code]]="", 0, VLOOKUP(Type[[#This Row],[Rate Code]], Rate[], 3, FALSE)*Type[[#This Row],[Qty]])</f>
         <v>1373.65</v>
       </c>
@@ -2329,13 +2501,19 @@
         <f>SUMIF(Ship_Type[REF], Type[[#This Row],[REF]], Ship_Type[Qty])</f>
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>IF(Type[[#This Row],[Rate Code]]="", 0, VLOOKUP(Type[[#This Row],[Rate Code]], Rate[], 3, FALSE)*Type[[#This Row],[Qty]])</f>
         <v>0</v>
       </c>
       <c r="F3" t="str">
         <f>IF(ISNA(Type[[#This Row],[Cost]]), "Error Accessing SAP Rate", "")</f>
         <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="7">
+        <f>SUM(Type[Cost])</f>
+        <v>1373.65</v>
       </c>
     </row>
   </sheetData>
@@ -2352,226 +2530,280 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>1200115</v>
+      </c>
+      <c r="B3" s="22" t="str">
+        <f>VLOOKUP(A3, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+        <v>Spintel - De-vanning pallets/unloading from truck, pallet put-away</v>
+      </c>
+      <c r="C3" s="24">
+        <f>VLOOKUP($A3, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="36">
+        <f>VLOOKUP($A3, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <f>C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>1200116</v>
+      </c>
+      <c r="B4" s="26" t="str">
+        <f>VLOOKUP(A4, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+        <v>Spintel - De-vanning cartons/unloading from a truck, carton put-away</v>
+      </c>
+      <c r="C4" s="28">
+        <f>VLOOKUP($A4, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="D4" s="36">
+        <f>VLOOKUP($A4, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f>C4*D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>4002288</v>
       </c>
-      <c r="B3" s="25" t="str">
-        <f>VLOOKUP(A3, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B7" s="22" t="str">
+        <f>VLOOKUP(A7, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>Standard Modem Dropship - Per order Fee</v>
       </c>
-      <c r="C3" s="27">
-        <f>VLOOKUP($A3, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+      <c r="C7" s="24">
+        <f>VLOOKUP($A7, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
         <v>3.31</v>
       </c>
-      <c r="D3" s="26">
-        <f>VLOOKUP($A3, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+      <c r="D7" s="23">
+        <f>VLOOKUP($A7, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
         <v>415</v>
       </c>
-      <c r="E3" s="28">
-        <f>C3*D3</f>
+      <c r="E7" s="25">
+        <f>C7*D7</f>
         <v>1373.65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>4002289</v>
       </c>
-      <c r="B4" s="29" t="str">
-        <f>VLOOKUP(A4, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B8" s="26" t="str">
+        <f>VLOOKUP(A8, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>Standard Modem Dropship - Per item Fee</v>
       </c>
-      <c r="C4" s="31">
-        <f>VLOOKUP($A4, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+      <c r="C8" s="28">
+        <f>VLOOKUP($A8, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
         <v>1.47</v>
       </c>
-      <c r="D4" s="30">
-        <f>VLOOKUP($A4, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+      <c r="D8" s="27">
+        <f>VLOOKUP($A8, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
         <v>362</v>
       </c>
-      <c r="E4" s="31">
-        <f>C4*D4</f>
+      <c r="E8" s="28">
+        <f>C8*D8</f>
         <v>532.14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="C10" s="31"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>1200117</v>
       </c>
-      <c r="B7" s="35" t="str">
-        <f>VLOOKUP(A7, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B11" s="32" t="str">
+        <f>VLOOKUP(A11, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>RTS - Processing of RTS Returns, Unpack, Inspection, De-Trash, Scan, Sorting and Report</v>
       </c>
-      <c r="C7" s="27">
-        <f>VLOOKUP($A7, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+      <c r="C11" s="24">
+        <f>VLOOKUP($A11, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
         <v>6.45</v>
       </c>
-      <c r="D7" s="39">
-        <f>VLOOKUP($A7, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="28">
-        <f>C7*D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="D11" s="36">
+        <f>VLOOKUP($A11, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <f>C11*D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="str">
-        <f>VLOOKUP(A10, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B14" s="22" t="str">
+        <f>VLOOKUP(A14, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>Standard Pallet Storage</v>
       </c>
-      <c r="C10" s="27">
-        <f>VLOOKUP($A10, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+      <c r="C14" s="24">
+        <f>VLOOKUP($A14, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
         <v>6.2</v>
       </c>
-      <c r="D10" s="39">
-        <f>VLOOKUP($A10, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
-        <f>C10*D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="D14" s="36">
+        <f>VLOOKUP($A14, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f>C14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>1200118</v>
       </c>
-      <c r="B11" s="29" t="str">
-        <f>VLOOKUP(A11, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B15" s="26" t="str">
+        <f>VLOOKUP(A15, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>Labour - Labour Rate Weekday</v>
       </c>
-      <c r="C11" s="31">
-        <f>VLOOKUP($A11, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+      <c r="C15" s="28">
+        <f>VLOOKUP($A15, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
         <v>100</v>
       </c>
-      <c r="D11" s="39">
-        <f>VLOOKUP($A11, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <f>C11*D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="D15" s="36">
+        <f>VLOOKUP($A15, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <f>C15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>1200119</v>
       </c>
-      <c r="B12" s="25" t="str">
-        <f>VLOOKUP(A12, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B16" s="22" t="str">
+        <f>VLOOKUP(A16, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>Disbursement</v>
       </c>
-      <c r="C12" s="27">
-        <f>VLOOKUP($A12, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="39">
-        <f>VLOOKUP($A12, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
-        <f>C12*D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="C16" s="24">
+        <f>VLOOKUP($A16, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <f>VLOOKUP($A16, Rate[[SAP Code]:[Qty]], 8, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <f>C16*D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>1200120</v>
       </c>
-      <c r="B13" s="29" t="str">
-        <f>VLOOKUP(A13, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
+      <c r="B17" s="26" t="str">
+        <f>VLOOKUP(A17, Rate[[SAP Code]:[Qty]], 2, FALSE)</f>
         <v>API - Management Fee</v>
       </c>
-      <c r="C13" s="31">
-        <f>VLOOKUP($A13, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
+      <c r="C17" s="28">
+        <f>VLOOKUP($A17, Rate[[SAP Code]:[Qty]], 3, FALSE)</f>
         <v>250</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D17" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="31">
-        <f>C13*D13</f>
+      <c r="E17" s="28">
+        <f>C17*D17</f>
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="41" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8">
-        <f>SUM(E2:E14)</f>
+      <c r="E19" s="7">
+        <f>SUM(E2:E18)</f>
         <v>2155.79</v>
       </c>
     </row>
@@ -2587,7 +2819,9 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2596,10 +2830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2613,10 +2847,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="9" t="str">
         <f>_xlfn.IFNA(INDEX(Ship_Type[Error],MATCH(TRUE,INDEX(Ship_Type[Error]&lt;&gt;"",0),0)), "")</f>
         <v>Quantity is not number</v>
       </c>
@@ -2631,10 +2865,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <f>_xlfn.IFNA(INDEX(Type[Error],MATCH(TRUE,INDEX(Type[Error]&lt;&gt;"",0),0)), "")</f>
         <v/>
       </c>
